--- a/level-2/codeforces-phase-2-gym-contests/codeforces-phase-2-gym-contests.xlsx
+++ b/level-2/codeforces-phase-2-gym-contests/codeforces-phase-2-gym-contests.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D63795-DE1C-4EA6-8AF0-42517D10C09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 contest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,51 +31,27 @@
     <t>solved problems</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 1</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/598</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 2</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/600</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 3</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/609</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 4</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/612</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 5</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/616</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 6</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/620</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 7</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/622</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 8</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/628</t>
   </si>
   <si>
@@ -84,255 +61,129 @@
     <t>https://codeforces.com/contest/630</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 9</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/632</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 10</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/652</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 11</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/660</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 12</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/665</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 13</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/678</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 14</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/691</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 15</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/702</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 16</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/710</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 17</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/762</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 18</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/792</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 19</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/797</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 20</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/803</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 21</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/808</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 22</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/813</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 23</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/817</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 24</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/818</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 25</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/825</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 26</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/837</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 27</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/845</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 28</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/846</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 29</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/863</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 30</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/873</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 31</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/884</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 32</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/888</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 33</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/893</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 34</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/903</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 35</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/911</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 36</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/915</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 37</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/920</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 38</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/938</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 39</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/946</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 40</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/954</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 41</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/961</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 42</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/962</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 43</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/976</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 44</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/985</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 45</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/990</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 46</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1000</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 47</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1009</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 48</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1016</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 49</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1027</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 50</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1036</t>
   </si>
   <si>
@@ -405,66 +256,6 @@
     <t>https://codeforces.com/gym/101306</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 51</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 52</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 53</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 54</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 55</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 56</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 57</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 58</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 59</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 60</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 61</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 62</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 63</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 64</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 65</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 66</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 67</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 68</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 69</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 70</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1051</t>
   </si>
   <si>
@@ -537,33 +328,6 @@
     <t>Total Time in (min)</t>
   </si>
   <si>
-    <t>Educational CodeforcesRound 71</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 72</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 73</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 74</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 75</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 76</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 77</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 78</t>
-  </si>
-  <si>
-    <t>Educational CodeforcesRound 79</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1207</t>
   </si>
   <si>
@@ -655,12 +419,249 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 1</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 2</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 3</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 4</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 5</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 6</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 7</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 8</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 9</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 10</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 11</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 12</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 13</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 14</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 15</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 16</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 17</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 18</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 19</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 20</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 21</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 22</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 23</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 24</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 25</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 26</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 27</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 28</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 29</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 30</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 31</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 32</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 33</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 34</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 35</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 36</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 37</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 38</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 39</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 40</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 41</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 42</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 43</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 44</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 45</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 46</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 47</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 48</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 49</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 50</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 51</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 52</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 53</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 54</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 55</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 56</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 57</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 58</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 59</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 60</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 61</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 62</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 63</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 64</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 65</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 66</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 67</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 68</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 69</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 70</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 71</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 72</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 73</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 74</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 75</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 76</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 77</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 78</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1583,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1591,17 +1592,17 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="108.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="15" style="19" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -1609,31 +1610,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B861)</f>
@@ -1666,12 +1667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="16">
         <v>2</v>
@@ -1687,12 +1688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="17">
         <v>2</v>
@@ -1708,12 +1709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="16">
         <v>2</v>
@@ -1729,12 +1730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="17">
         <v>2</v>
@@ -1750,12 +1751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16">
         <v>2</v>
@@ -1771,12 +1772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="17">
         <v>2</v>
@@ -1792,12 +1793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16">
         <v>2</v>
@@ -1813,12 +1814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="17">
         <v>2</v>
@@ -1834,12 +1835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="16">
         <v>2</v>
@@ -1855,12 +1856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
@@ -1876,12 +1877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C13" s="16">
         <v>2</v>
@@ -1897,12 +1898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="17">
         <v>2</v>
@@ -1918,12 +1919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C15" s="16">
         <v>2</v>
@@ -1939,12 +1940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17">
         <v>2</v>
@@ -1960,12 +1961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C17" s="16">
         <v>2</v>
@@ -1981,12 +1982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C18" s="17">
         <v>2</v>
@@ -2002,12 +2003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
@@ -2023,12 +2024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17">
         <v>2</v>
@@ -2044,12 +2045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C21" s="16">
         <v>2</v>
@@ -2065,12 +2066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17">
         <v>2</v>
@@ -2086,12 +2087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16">
         <v>2</v>
@@ -2107,12 +2108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17">
         <v>2</v>
@@ -2128,12 +2129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C25" s="16">
         <v>2</v>
@@ -2149,12 +2150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C26" s="17">
         <v>2</v>
@@ -2170,12 +2171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C27" s="16">
         <v>2</v>
@@ -2191,12 +2192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C28" s="17">
         <v>2</v>
@@ -2212,12 +2213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C29" s="16">
         <v>2</v>
@@ -2233,12 +2234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C30" s="17">
         <v>2</v>
@@ -2254,12 +2255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C31" s="16">
         <v>2</v>
@@ -2275,12 +2276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C32" s="17">
         <v>2</v>
@@ -2296,12 +2297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C33" s="16">
         <v>2</v>
@@ -2317,12 +2318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C34" s="17">
         <v>2</v>
@@ -2338,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C35" s="16">
         <v>2</v>
@@ -2359,12 +2360,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C36" s="17">
         <v>2</v>
@@ -2380,12 +2381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
@@ -2401,12 +2402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17">
         <v>2</v>
@@ -2422,12 +2423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C39" s="16">
         <v>2</v>
@@ -2443,12 +2444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C40" s="17">
         <v>2</v>
@@ -2464,12 +2465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C41" s="16">
         <v>2</v>
@@ -2485,12 +2486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C42" s="17">
         <v>2</v>
@@ -2506,12 +2507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C43" s="16">
         <v>2</v>
@@ -2527,12 +2528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C44" s="17">
         <v>2</v>
@@ -2548,12 +2549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C45" s="16">
         <v>2</v>
@@ -2569,12 +2570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C46" s="17">
         <v>2</v>
@@ -2590,12 +2591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C47" s="16">
         <v>2</v>
@@ -2611,12 +2612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C48" s="17">
         <v>2</v>
@@ -2632,12 +2633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C49" s="16">
         <v>2</v>
@@ -2653,12 +2654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
@@ -2674,12 +2675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C51" s="16">
         <v>2</v>
@@ -2695,12 +2696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C52" s="17">
         <v>2</v>
@@ -2716,12 +2717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C53" s="16">
         <v>2</v>
@@ -2737,12 +2738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C54" s="17">
         <v>2</v>
@@ -2758,12 +2759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="C55" s="16">
         <v>2</v>
@@ -2779,12 +2780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C56" s="17">
         <v>2</v>
@@ -2800,12 +2801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C57" s="16">
         <v>2</v>
@@ -2821,12 +2822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="C58" s="17">
         <v>2</v>
@@ -2842,12 +2843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C59" s="16">
         <v>2</v>
@@ -2863,12 +2864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C60" s="17">
         <v>2</v>
@@ -2884,12 +2885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C61" s="16">
         <v>2</v>
@@ -2905,12 +2906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C62" s="17">
         <v>2</v>
@@ -2926,12 +2927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C63" s="16">
         <v>2</v>
@@ -2947,12 +2948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C64" s="17">
         <v>2</v>
@@ -2968,12 +2969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C65" s="16">
         <v>2</v>
@@ -2989,12 +2990,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C66" s="17">
         <v>2</v>
@@ -3010,12 +3011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="C67" s="16">
         <v>2</v>
@@ -3031,12 +3032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="C68" s="17">
         <v>2</v>
@@ -3052,12 +3053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="C69" s="16">
         <v>2</v>
@@ -3073,12 +3074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C70" s="17">
         <v>2</v>
@@ -3094,12 +3095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C71" s="16">
         <v>2</v>
@@ -3115,12 +3116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C72" s="17">
         <v>2</v>
@@ -3136,12 +3137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="C73" s="16">
         <v>2</v>
@@ -3157,12 +3158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="C74" s="17">
         <v>2</v>
@@ -3178,12 +3179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="C75" s="16">
         <v>2</v>
@@ -3199,12 +3200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="C76" s="17">
         <v>2</v>
@@ -3220,12 +3221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="C77" s="16">
         <v>2</v>
@@ -3241,12 +3242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="C78" s="17">
         <v>2</v>
@@ -3262,12 +3263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="C79" s="16">
         <v>2</v>
@@ -3283,12 +3284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="C80" s="17">
         <v>2</v>
@@ -3304,12 +3305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="C81" s="16">
         <v>2</v>
@@ -3325,12 +3326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="C82" s="17">
         <v>2</v>
@@ -3346,12 +3347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="C83" s="17">
         <v>3</v>
@@ -3367,12 +3368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C84" s="16">
         <v>5</v>
@@ -3388,12 +3389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="C85" s="17">
         <v>5</v>
@@ -3409,12 +3410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C86" s="22">
         <v>7.5</v>
@@ -3430,12 +3431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="C87" s="22">
         <v>10.5</v>
@@ -3451,12 +3452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C88" s="17">
         <v>3</v>
@@ -3472,12 +3473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="C89" s="16">
         <v>3</v>
@@ -3493,12 +3494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="C90" s="17">
         <v>3</v>
@@ -3514,12 +3515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C91" s="16">
         <v>4</v>
@@ -3535,12 +3536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C92" s="16">
         <v>4</v>
@@ -3556,12 +3557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C93" s="17">
         <v>4</v>
@@ -3577,12 +3578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C94" s="17">
         <v>4</v>
@@ -3598,12 +3599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="C95" s="16">
         <v>4</v>
@@ -3619,12 +3620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C96" s="17">
         <v>5</v>
@@ -3640,12 +3641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C97" s="16">
         <v>5</v>
@@ -3661,12 +3662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C98" s="17">
         <v>5</v>
@@ -3682,12 +3683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C99" s="16">
         <v>5</v>
@@ -3703,12 +3704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C100" s="16">
         <v>5</v>
@@ -3724,12 +3725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C101" s="16">
         <v>5</v>
@@ -3745,12 +3746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="C102" s="17">
         <v>5</v>
@@ -3766,12 +3767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="C103" s="16">
         <v>5</v>
@@ -3787,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="8"/>
       <c r="C104" s="21"/>
@@ -3799,7 +3800,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="8"/>
       <c r="C105" s="22"/>
@@ -3811,7 +3812,7 @@
       <c r="I105" s="18"/>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="8"/>
       <c r="C106" s="21"/>
@@ -3823,7 +3824,7 @@
       <c r="I106" s="18"/>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="8"/>
       <c r="C107" s="22"/>
@@ -3835,7 +3836,7 @@
       <c r="I107" s="18"/>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="8"/>
       <c r="C108" s="21"/>
@@ -3847,7 +3848,7 @@
       <c r="I108" s="18"/>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="8"/>
       <c r="C109" s="22"/>
@@ -3859,7 +3860,7 @@
       <c r="I109" s="18"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="8"/>
       <c r="C110" s="21"/>
@@ -3871,7 +3872,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="8"/>
       <c r="C111" s="22"/>
@@ -3883,7 +3884,7 @@
       <c r="I111" s="18"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="8"/>
       <c r="C112" s="21"/>
@@ -3895,7 +3896,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="8"/>
       <c r="C113" s="22"/>
@@ -3907,7 +3908,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="8"/>
       <c r="C114" s="21"/>
@@ -3919,7 +3920,7 @@
       <c r="I114" s="18"/>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="8"/>
       <c r="C115" s="22"/>
@@ -3931,7 +3932,7 @@
       <c r="I115" s="18"/>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="8"/>
       <c r="C116" s="21"/>
@@ -3943,7 +3944,7 @@
       <c r="I116" s="18"/>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="8"/>
       <c r="C117" s="22"/>
@@ -3955,7 +3956,7 @@
       <c r="I117" s="17"/>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="8"/>
       <c r="C118" s="21"/>
@@ -3967,7 +3968,7 @@
       <c r="I118" s="17"/>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="8"/>
       <c r="C119" s="22"/>
@@ -3979,7 +3980,7 @@
       <c r="I119" s="18"/>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="8"/>
       <c r="C120" s="21"/>
@@ -3991,7 +3992,7 @@
       <c r="I120" s="18"/>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="8"/>
       <c r="C121" s="22"/>
@@ -4003,7 +4004,7 @@
       <c r="I121" s="18"/>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="8"/>
       <c r="C122" s="21"/>
@@ -4015,7 +4016,7 @@
       <c r="I122" s="17"/>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="8"/>
       <c r="C123" s="22"/>
@@ -4027,7 +4028,7 @@
       <c r="I123" s="17"/>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="8"/>
       <c r="C124" s="21"/>
@@ -4039,7 +4040,7 @@
       <c r="I124" s="18"/>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="8"/>
       <c r="C125" s="22"/>
@@ -4051,7 +4052,7 @@
       <c r="I125" s="18"/>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="8"/>
       <c r="C126" s="21"/>
@@ -4063,7 +4064,7 @@
       <c r="I126" s="18"/>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="8"/>
       <c r="C127" s="22"/>
@@ -4075,7 +4076,7 @@
       <c r="I127" s="18"/>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="8"/>
       <c r="C128" s="21"/>
@@ -4087,7 +4088,7 @@
       <c r="I128" s="17"/>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="8"/>
       <c r="C129" s="22"/>
@@ -4099,7 +4100,7 @@
       <c r="I129" s="18"/>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="8"/>
       <c r="C130" s="21"/>
@@ -4111,7 +4112,7 @@
       <c r="I130" s="18"/>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="8"/>
       <c r="C131" s="22"/>
@@ -4123,7 +4124,7 @@
       <c r="I131" s="18"/>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="8"/>
       <c r="C132" s="21"/>
@@ -4135,7 +4136,7 @@
       <c r="I132" s="18"/>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="8"/>
       <c r="C133" s="22"/>
@@ -4147,7 +4148,7 @@
       <c r="I133" s="18"/>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="8"/>
       <c r="C134" s="21"/>
@@ -4159,7 +4160,7 @@
       <c r="I134" s="18"/>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="8"/>
       <c r="C135" s="22"/>
@@ -4171,7 +4172,7 @@
       <c r="I135" s="18"/>
       <c r="J135" s="16"/>
     </row>
-    <row r="136" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="8"/>
       <c r="C136" s="21"/>
@@ -4183,7 +4184,7 @@
       <c r="I136" s="18"/>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="8"/>
       <c r="C137" s="22"/>
@@ -4195,7 +4196,7 @@
       <c r="I137" s="18"/>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="8"/>
       <c r="C138" s="17"/>
@@ -4207,7 +4208,7 @@
       <c r="I138" s="18"/>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4219,7 +4220,7 @@
       <c r="I139" s="18"/>
       <c r="J139" s="16"/>
     </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4231,7 +4232,7 @@
       <c r="I140" s="18"/>
       <c r="J140" s="16"/>
     </row>
-    <row r="141" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4243,7 +4244,7 @@
       <c r="I141" s="18"/>
       <c r="J141" s="16"/>
     </row>
-    <row r="142" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4255,7 +4256,7 @@
       <c r="I142" s="18"/>
       <c r="J142" s="16"/>
     </row>
-    <row r="143" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4267,7 +4268,7 @@
       <c r="I143" s="18"/>
       <c r="J143" s="16"/>
     </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4279,7 +4280,7 @@
       <c r="I144" s="18"/>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4291,7 +4292,7 @@
       <c r="I145" s="18"/>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4303,7 +4304,7 @@
       <c r="I146" s="18"/>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4315,7 +4316,7 @@
       <c r="I147" s="18"/>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4327,7 +4328,7 @@
       <c r="I148" s="18"/>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4339,7 +4340,7 @@
       <c r="I149" s="18"/>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4351,7 +4352,7 @@
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
     </row>
-    <row r="151" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4363,7 +4364,7 @@
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
     </row>
-    <row r="152" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4375,7 +4376,7 @@
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
     </row>
-    <row r="153" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4387,7 +4388,7 @@
       <c r="I153" s="19"/>
       <c r="J153" s="19"/>
     </row>
-    <row r="154" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4399,7 +4400,7 @@
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
     </row>
-    <row r="155" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -4411,7 +4412,7 @@
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
     </row>
-    <row r="156" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4423,7 +4424,7 @@
       <c r="I156" s="19"/>
       <c r="J156" s="19"/>
     </row>
-    <row r="157" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -4435,7 +4436,7 @@
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
     </row>
-    <row r="158" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -4447,7 +4448,7 @@
       <c r="I158" s="19"/>
       <c r="J158" s="19"/>
     </row>
-    <row r="159" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -4459,7 +4460,7 @@
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
     </row>
-    <row r="160" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4471,7 +4472,7 @@
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
     </row>
-    <row r="161" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -4483,7 +4484,7 @@
       <c r="I161" s="19"/>
       <c r="J161" s="19"/>
     </row>
-    <row r="162" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -4495,7 +4496,7 @@
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
     </row>
-    <row r="163" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -4507,7 +4508,7 @@
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
     </row>
-    <row r="164" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -4519,7 +4520,7 @@
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
     </row>
-    <row r="165" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -4531,7 +4532,7 @@
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
     </row>
-    <row r="166" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -4543,7 +4544,7 @@
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
     </row>
-    <row r="167" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -4555,7 +4556,7 @@
       <c r="I167" s="19"/>
       <c r="J167" s="19"/>
     </row>
-    <row r="168" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -4567,7 +4568,7 @@
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
     </row>
-    <row r="169" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -4579,11 +4580,11 @@
       <c r="I169" s="19"/>
       <c r="J169" s="19"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A230:I237">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A230:I237">
     <sortCondition ref="C230:C237"/>
   </sortState>
   <mergeCells count="3">
@@ -4877,39 +4878,39 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1"/>
-    <hyperlink ref="B55" r:id="rId2"/>
-    <hyperlink ref="B56" r:id="rId3"/>
-    <hyperlink ref="B57" r:id="rId4"/>
-    <hyperlink ref="B58" r:id="rId5"/>
-    <hyperlink ref="B59" r:id="rId6"/>
-    <hyperlink ref="B60" r:id="rId7"/>
-    <hyperlink ref="B61" r:id="rId8"/>
-    <hyperlink ref="B62" r:id="rId9"/>
-    <hyperlink ref="B63" r:id="rId10"/>
-    <hyperlink ref="B64" r:id="rId11"/>
-    <hyperlink ref="B65" r:id="rId12"/>
-    <hyperlink ref="B66" r:id="rId13"/>
-    <hyperlink ref="B67" r:id="rId14"/>
-    <hyperlink ref="B69" r:id="rId15"/>
-    <hyperlink ref="B68" r:id="rId16"/>
-    <hyperlink ref="B74" r:id="rId17"/>
-    <hyperlink ref="B75" r:id="rId18"/>
-    <hyperlink ref="B76" r:id="rId19"/>
-    <hyperlink ref="B77" r:id="rId20"/>
-    <hyperlink ref="B78" r:id="rId21"/>
-    <hyperlink ref="B79" r:id="rId22"/>
-    <hyperlink ref="B80" r:id="rId23"/>
-    <hyperlink ref="B81" r:id="rId24"/>
-    <hyperlink ref="B82" r:id="rId25"/>
-    <hyperlink ref="B89" r:id="rId26"/>
-    <hyperlink ref="B90" r:id="rId27"/>
-    <hyperlink ref="B95" r:id="rId28"/>
-    <hyperlink ref="B102" r:id="rId29"/>
-    <hyperlink ref="B103" r:id="rId30"/>
-    <hyperlink ref="B83" r:id="rId31"/>
-    <hyperlink ref="B85" r:id="rId32"/>
-    <hyperlink ref="B87" r:id="rId33"/>
+    <hyperlink ref="B54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B55" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B56" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B57" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B58" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B59" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B60" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B61" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B62" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B63" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B64" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B65" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B66" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B67" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B68" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B74" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B75" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B76" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B77" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B78" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B79" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B80" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B81" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B82" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B89" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B90" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B95" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B102" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B103" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B83" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B85" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B87" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
